--- a/python topics covered.xlsx
+++ b/python topics covered.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\Ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFAF7BF-D565-4767-BD39-25B42FB8FF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38367176-F6BC-4EC9-A3C2-BDF7D4C3E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51947F26-65EE-46DC-B8C5-703352DB0027}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Strings</t>
-  </si>
-  <si>
-    <t>Numbers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Control Flow</t>
   </si>
@@ -59,41 +48,886 @@
     <t>Data Structures</t>
   </si>
   <si>
-    <t>Modules and Packages</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>OOP</t>
   </si>
   <si>
-    <t>Try Except</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
-    <t>objects</t>
-  </si>
-  <si>
-    <t>Constructors</t>
-  </si>
-  <si>
-    <t>Private Members</t>
-  </si>
-  <si>
-    <t>4 pillars</t>
-  </si>
-  <si>
     <t>Operators</t>
+  </si>
+  <si>
+    <t>Generators</t>
+  </si>
+  <si>
+    <t>Decorators</t>
+  </si>
+  <si>
+    <t>List Comprehensions</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>MultiProcessing</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Details / Examples</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Store data: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x = 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>name = "Ali"</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Types</t>
+  </si>
+  <si>
+    <r>
+      <t>Strings:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Hello"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numbers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>complex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boolean:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arithmetic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>+ - * / % // **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparison:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>== != &gt; &lt; &gt;= &lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logical:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>and, or, not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assignment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>= += -= *= /=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if / elif / else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → conditional execution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> iterate over sequence </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> repeat until condition fails</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[1,2,3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mutable, ordered) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tuple:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(1,2,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (immutable, ordered) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{1,2,3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (unique, unordered) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dictionary:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{"key": "value"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (key-value pairs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Modules &amp; Packages</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import &amp; reuse code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>import math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>from module import func</t>
+    </r>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <r>
+      <t>Non-parameterized:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>def greet(): ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parameterized:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>def add(a,b): ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Return:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>return result</t>
+    </r>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <r>
+      <t>try / except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → handle exceptions safely</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blueprint → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>class Student:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instance of class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constructor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Private Members:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>__var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Four Pillars:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Encapsulation, Abstraction, Inheritance, Polymorphism</t>
+    </r>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yield </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +943,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -119,7 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,10 +990,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,92 +1348,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EF8796-B65F-4AFA-AAA3-E4BB3945A76A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/python topics covered.xlsx
+++ b/python topics covered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\Ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38367176-F6BC-4EC9-A3C2-BDF7D4C3E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701879F-6832-4BA8-8DAD-337BD22D65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51947F26-65EE-46DC-B8C5-703352DB0027}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Control Flow</t>
   </si>
@@ -917,10 +916,16 @@
     </r>
   </si>
   <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yield </t>
+    <t>Iterators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__iter__, __next__ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">also called iterator, use yield value one by one, instead of return </t>
+  </si>
+  <si>
+    <t>[expression for item in iterable if condition]</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1017,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1356,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1452,29 +1457,37 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-    </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/python topics covered.xlsx
+++ b/python topics covered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\Ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701879F-6832-4BA8-8DAD-337BD22D65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FCF1A1-850C-4A5A-9128-467E4464C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51947F26-65EE-46DC-B8C5-703352DB0027}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
